--- a/MDA-MB-231-Cell-Count-Data/GH1909_300nM_working_mod_8_22.xlsx
+++ b/MDA-MB-231-Cell-Count-Data/GH1909_300nM_working_mod_8_22.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\grh57\Documents\MATLAB\2020 Incucyte Data Cal-Val\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\grh57\Desktop\Cell Count Data (Final MATLAB Format) v2\231\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,10 +21,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -342,7 +338,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G214"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:G23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -351,22 +349,22 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1880</v>
+        <v>1588.7096378146102</v>
       </c>
       <c r="C1">
-        <v>1954</v>
+        <v>1613.2157188650124</v>
       </c>
       <c r="D1">
-        <v>2004</v>
+        <v>1627.5700325732901</v>
       </c>
       <c r="E1">
-        <v>1835</v>
+        <v>1551.1751212478698</v>
       </c>
       <c r="F1">
-        <v>1913</v>
+        <v>1579.9135128270254</v>
       </c>
       <c r="G1">
-        <v>1643</v>
+        <v>1354.7780514504655</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -374,22 +372,22 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>1891</v>
+        <v>1598.0052793124619</v>
       </c>
       <c r="C2">
-        <v>2083</v>
+        <v>1719.7176777870118</v>
       </c>
       <c r="D2">
-        <v>2141</v>
+        <v>1738.8360477741587</v>
       </c>
       <c r="E2">
-        <v>1928</v>
+        <v>1629.7905361122032</v>
       </c>
       <c r="F2">
-        <v>1899</v>
+        <v>1568.3511557023112</v>
       </c>
       <c r="G2">
-        <v>1726</v>
+        <v>1423.2178434592229</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -397,22 +395,22 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>1942</v>
+        <v>1641.1032535297729</v>
       </c>
       <c r="C3">
-        <v>2104</v>
+        <v>1737.0552059836164</v>
       </c>
       <c r="D3">
-        <v>2219</v>
+        <v>1802.1845819761131</v>
       </c>
       <c r="E3">
-        <v>1957</v>
+        <v>1654.3050203172104</v>
       </c>
       <c r="F3">
-        <v>2001</v>
+        <v>1652.5911861823722</v>
       </c>
       <c r="G3">
-        <v>1756</v>
+        <v>1447.9551176792559</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -420,22 +418,22 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>2039</v>
+        <v>1723.0739103744629</v>
       </c>
       <c r="C4">
-        <v>2188</v>
+        <v>1806.4053187700345</v>
       </c>
       <c r="D4">
-        <v>2279</v>
+        <v>1850.914223669924</v>
       </c>
       <c r="E4">
-        <v>2018</v>
+        <v>1705.8699698518808</v>
       </c>
       <c r="F4">
-        <v>2028</v>
+        <v>1674.8900177800354</v>
       </c>
       <c r="G4">
-        <v>1786</v>
+        <v>1472.6923918992886</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -443,22 +441,22 @@
         <v>12</v>
       </c>
       <c r="B5">
-        <v>2143</v>
+        <v>1810.9599754450585</v>
       </c>
       <c r="C5">
-        <v>2282</v>
+        <v>1884.0113973643595</v>
       </c>
       <c r="D5">
-        <v>2402</v>
+        <v>1950.8099891422369</v>
       </c>
       <c r="E5">
-        <v>2129</v>
+        <v>1799.7012714641496</v>
       </c>
       <c r="F5">
-        <v>2157</v>
+        <v>1781.4288798577595</v>
       </c>
       <c r="G5">
-        <v>1875</v>
+        <v>1546.0796387520527</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -466,22 +464,22 @@
         <v>15</v>
       </c>
       <c r="B6">
-        <v>2270</v>
+        <v>1918.2823818293434</v>
       </c>
       <c r="C6">
-        <v>2361</v>
+        <v>1949.2335272468242</v>
       </c>
       <c r="D6">
-        <v>2492</v>
+        <v>2023.9044516829533</v>
       </c>
       <c r="E6">
-        <v>2170</v>
+        <v>1834.3596801677807</v>
       </c>
       <c r="F6">
-        <v>2222</v>
+        <v>1835.1112522225042</v>
       </c>
       <c r="G6">
-        <v>1973</v>
+        <v>1626.8880678708267</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -489,22 +487,22 @@
         <v>18</v>
       </c>
       <c r="B7">
-        <v>2341</v>
+        <v>1978.2815224063845</v>
       </c>
       <c r="C7">
-        <v>2488</v>
+        <v>2054.0842930072422</v>
       </c>
       <c r="D7">
-        <v>2579</v>
+        <v>2094.5624321389796</v>
       </c>
       <c r="E7">
-        <v>2335</v>
+        <v>1973.838642023856</v>
       </c>
       <c r="F7">
-        <v>2382</v>
+        <v>1967.2524765049527</v>
       </c>
       <c r="G7">
-        <v>2067</v>
+        <v>1704.398193760263</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -512,22 +510,22 @@
         <v>21</v>
       </c>
       <c r="B8">
-        <v>2446</v>
+        <v>2067.0126457949664</v>
       </c>
       <c r="C8">
-        <v>2565</v>
+        <v>2117.6552297281255</v>
       </c>
       <c r="D8">
-        <v>2644</v>
+        <v>2147.3528773072749</v>
       </c>
       <c r="E8">
-        <v>2385</v>
+        <v>2016.1049941014546</v>
       </c>
       <c r="F8">
-        <v>2415</v>
+        <v>1994.5066040132076</v>
       </c>
       <c r="G8">
-        <v>2161</v>
+        <v>1781.9083196496993</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -535,22 +533,22 @@
         <v>24</v>
       </c>
       <c r="B9">
-        <v>2586</v>
+        <v>2185.3208103130755</v>
       </c>
       <c r="C9">
-        <v>2681</v>
+        <v>2213.4244330998458</v>
       </c>
       <c r="D9">
-        <v>2799</v>
+        <v>2273.2377850162866</v>
       </c>
       <c r="E9">
-        <v>2518</v>
+        <v>2128.5334906278672</v>
       </c>
       <c r="F9">
-        <v>2514</v>
+        <v>2076.268986537973</v>
       </c>
       <c r="G9">
-        <v>2270</v>
+        <v>1871.7870826491519</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -558,22 +556,22 @@
         <v>27</v>
       </c>
       <c r="B10">
-        <v>2672</v>
+        <v>2257.9958256599143</v>
       </c>
       <c r="C10">
-        <v>2794</v>
+        <v>2306.716846729194</v>
       </c>
       <c r="D10">
-        <v>2918</v>
+        <v>2369.8849077090122</v>
       </c>
       <c r="E10">
-        <v>2624</v>
+        <v>2218.1381570323761</v>
       </c>
       <c r="F10">
-        <v>2653</v>
+        <v>2191.0666751333501</v>
       </c>
       <c r="G10">
-        <v>2391</v>
+        <v>1971.5607553366176</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -581,22 +579,22 @@
         <v>30</v>
       </c>
       <c r="B11">
-        <v>2910</v>
+        <v>2459.1197053407</v>
       </c>
       <c r="C11">
-        <v>3078</v>
+        <v>2541.1862756737505</v>
       </c>
       <c r="D11">
-        <v>3108</v>
+        <v>2524.1954397394138</v>
       </c>
       <c r="E11">
-        <v>2838</v>
+        <v>2399.0381439244984</v>
       </c>
       <c r="F11">
-        <v>2891</v>
+        <v>2387.626746253492</v>
       </c>
       <c r="G11">
-        <v>2667</v>
+        <v>2199.14367816092</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -604,22 +602,22 @@
         <v>33</v>
       </c>
       <c r="B12">
-        <v>3088</v>
+        <v>2609.5400859422962</v>
       </c>
       <c r="C12">
-        <v>3291</v>
+        <v>2717.038347382168</v>
       </c>
       <c r="D12">
-        <v>3336</v>
+        <v>2709.3680781758958</v>
       </c>
       <c r="E12">
-        <v>3018</v>
+        <v>2551.1970114038536</v>
       </c>
       <c r="F12">
-        <v>3035</v>
+        <v>2506.553848107696</v>
       </c>
       <c r="G12">
-        <v>2779</v>
+        <v>2291.4961685823755</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -627,22 +625,22 @@
         <v>36</v>
       </c>
       <c r="B13">
-        <v>3274</v>
+        <v>2766.720933087784</v>
       </c>
       <c r="C13">
-        <v>3498</v>
+        <v>2887.9368396058412</v>
       </c>
       <c r="D13">
-        <v>3503</v>
+        <v>2844.99891422367</v>
       </c>
       <c r="E13">
-        <v>3199</v>
+        <v>2704.2012059247604</v>
       </c>
       <c r="F13">
-        <v>3226</v>
+        <v>2664.2974345948687</v>
       </c>
       <c r="G13">
-        <v>2936</v>
+        <v>2420.9545703338808</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -650,22 +648,22 @@
         <v>39</v>
       </c>
       <c r="B14">
-        <v>3521</v>
+        <v>2975.4503376304483</v>
       </c>
       <c r="C14">
-        <v>3733</v>
+        <v>3081.952036091654</v>
       </c>
       <c r="D14">
-        <v>3688</v>
+        <v>2995.2486427795875</v>
       </c>
       <c r="E14">
-        <v>3429</v>
+        <v>2898.6264254817143</v>
       </c>
       <c r="F14">
-        <v>3400</v>
+        <v>2808.0010160020315</v>
       </c>
       <c r="G14">
-        <v>3144</v>
+        <v>2592.4663382594422</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -673,22 +671,22 @@
         <v>42</v>
       </c>
       <c r="B15">
-        <v>3758</v>
+        <v>3175.7291589932474</v>
       </c>
       <c r="C15">
-        <v>3901</v>
+        <v>3220.6522616644902</v>
       </c>
       <c r="D15">
-        <v>3897</v>
+        <v>3164.9902280130295</v>
       </c>
       <c r="E15">
-        <v>3582</v>
+        <v>3027.961462839166</v>
       </c>
       <c r="F15">
-        <v>3598</v>
+        <v>2971.5257810515618</v>
       </c>
       <c r="G15">
-        <v>3329</v>
+        <v>2745.0128626163114</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -696,22 +694,22 @@
         <v>44.966666666666697</v>
       </c>
       <c r="B16">
-        <v>3823</v>
+        <v>3230.6579496623699</v>
       </c>
       <c r="C16">
-        <v>4037</v>
+        <v>3332.9333966520244</v>
       </c>
       <c r="D16">
-        <v>4027</v>
+        <v>3270.5711183496201</v>
       </c>
       <c r="E16">
-        <v>3637</v>
+        <v>3074.4544501245246</v>
       </c>
       <c r="F16">
-        <v>3822</v>
+        <v>3156.5234950469894</v>
       </c>
       <c r="G16">
-        <v>3462</v>
+        <v>2854.6814449917902</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
@@ -719,22 +717,22 @@
         <v>47.966666666666697</v>
       </c>
       <c r="B17">
-        <v>3924</v>
+        <v>3316.0088397790059</v>
       </c>
       <c r="C17">
-        <v>4116</v>
+        <v>3398.1555265344891</v>
       </c>
       <c r="D17">
-        <v>4065</v>
+        <v>3301.4332247557004</v>
       </c>
       <c r="E17">
-        <v>3732</v>
+        <v>3154.7605190719619</v>
       </c>
       <c r="F17">
-        <v>3839</v>
+        <v>3170.5635001269998</v>
       </c>
       <c r="G17">
-        <v>3497</v>
+        <v>2883.5415982484951</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
@@ -742,22 +740,22 @@
         <v>50.966666666666697</v>
       </c>
       <c r="B18">
-        <v>3952</v>
+        <v>3339.6704726826279</v>
       </c>
       <c r="C18">
-        <v>4105</v>
+        <v>3389.0739641457913</v>
       </c>
       <c r="D18">
-        <v>4075</v>
+        <v>3309.5548317046691</v>
       </c>
       <c r="E18">
-        <v>3732</v>
+        <v>3154.7605190719619</v>
       </c>
       <c r="F18">
-        <v>3864</v>
+        <v>3191.2105664211322</v>
       </c>
       <c r="G18">
-        <v>3539</v>
+        <v>2918.1737821565412</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
@@ -765,22 +763,22 @@
         <v>53.966666666666697</v>
       </c>
       <c r="B19">
-        <v>3986</v>
+        <v>3368.4024554941684</v>
       </c>
       <c r="C19">
-        <v>4186</v>
+        <v>3455.9472871898374</v>
       </c>
       <c r="D19">
-        <v>4154</v>
+        <v>3373.7155266015202</v>
       </c>
       <c r="E19">
-        <v>3784</v>
+        <v>3198.7175252326642</v>
       </c>
       <c r="F19">
-        <v>3876</v>
+        <v>3201.1211582423161</v>
       </c>
       <c r="G19">
-        <v>3564</v>
+        <v>2938.7881773399017</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
@@ -788,22 +786,22 @@
         <v>56.966666666666697</v>
       </c>
       <c r="B20">
-        <v>4024</v>
+        <v>3400.5146715776555</v>
       </c>
       <c r="C20">
-        <v>4203</v>
+        <v>3469.9824290632791</v>
       </c>
       <c r="D20">
-        <v>4155</v>
+        <v>3374.5276872964173</v>
       </c>
       <c r="E20">
-        <v>3804</v>
+        <v>3215.624066063704</v>
       </c>
       <c r="F20">
-        <v>3870</v>
+        <v>3196.1658623317244</v>
       </c>
       <c r="G20">
-        <v>3577</v>
+        <v>2949.5076628352494</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
@@ -811,22 +809,22 @@
         <v>59.966666666666697</v>
       </c>
       <c r="B21">
-        <v>4006</v>
+        <v>3385.3036218538982</v>
       </c>
       <c r="C21">
-        <v>4175</v>
+        <v>3446.86572480114</v>
       </c>
       <c r="D21">
-        <v>4141</v>
+        <v>3363.1574375678611</v>
       </c>
       <c r="E21">
-        <v>3815</v>
+        <v>3224.9226635207756</v>
       </c>
       <c r="F21">
-        <v>3878</v>
+        <v>3202.7729235458464</v>
       </c>
       <c r="G21">
-        <v>3595</v>
+        <v>2964.3500273672689</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
@@ -834,22 +832,22 @@
         <v>62.966666666666697</v>
       </c>
       <c r="B22">
-        <v>4008</v>
+        <v>3386.9937384898712</v>
       </c>
       <c r="C22">
-        <v>4180</v>
+        <v>3450.9937077050931</v>
       </c>
       <c r="D22">
-        <v>4113</v>
+        <v>3340.4169381107495</v>
       </c>
       <c r="E22">
-        <v>3807</v>
+        <v>3218.1600471883598</v>
       </c>
       <c r="F22">
-        <v>3859</v>
+        <v>3187.0811531623058</v>
       </c>
       <c r="G22">
-        <v>3639</v>
+        <v>3000.6313628899838</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
@@ -857,22 +855,22 @@
         <v>65.966666666666697</v>
       </c>
       <c r="B23">
-        <v>4051</v>
+        <v>3423.3312461632909</v>
       </c>
       <c r="C23">
-        <v>4201</v>
+        <v>3468.3312359016977</v>
       </c>
       <c r="D23">
-        <v>4134</v>
+        <v>3357.4723127035832</v>
       </c>
       <c r="E23">
-        <v>3812</v>
+        <v>3222.3866823961198</v>
       </c>
       <c r="F23">
-        <v>3911</v>
+        <v>3230.0270510541018</v>
       </c>
       <c r="G23">
-        <v>3649</v>
+        <v>3008.8771209633283</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
